--- a/state_results/Rivers/MangateraatDannevirke_821cd84a43.xlsx
+++ b/state_results/Rivers/MangateraatDannevirke_821cd84a43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U253"/>
+  <dimension ref="A1:U274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2093,7 +2093,7 @@
         <v>0.01229</v>
       </c>
       <c r="G21" t="n">
-        <v>0.012983136129015</v>
+        <v>0.0129848086252389</v>
       </c>
       <c r="H21" t="n">
         <v>0.0519801567747459</v>
@@ -2174,7 +2174,7 @@
         <v>0.01229</v>
       </c>
       <c r="G22" t="n">
-        <v>0.012983136129015</v>
+        <v>0.0129848086252389</v>
       </c>
       <c r="H22" t="n">
         <v>0.0519801567747459</v>
@@ -2251,7 +2251,7 @@
         <v>0.721</v>
       </c>
       <c r="G23" t="n">
-        <v>0.706058823529412</v>
+        <v>0.706067647058824</v>
       </c>
       <c r="H23" t="n">
         <v>1.922</v>
@@ -2262,7 +2262,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.1315</v>
+        <v>0.13175</v>
       </c>
       <c r="M23" t="n">
         <v>1.274</v>
@@ -2328,7 +2328,7 @@
         <v>0.721</v>
       </c>
       <c r="G24" t="n">
-        <v>0.706058823529412</v>
+        <v>0.706067647058824</v>
       </c>
       <c r="H24" t="n">
         <v>1.922</v>
@@ -2339,7 +2339,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>0.1315</v>
+        <v>0.13175</v>
       </c>
       <c r="M24" t="n">
         <v>1.274</v>
@@ -2563,13 +2563,13 @@
         <v>1.9</v>
       </c>
       <c r="G27" t="n">
-        <v>1.86014416125129</v>
+        <v>1.92139942154775</v>
       </c>
       <c r="H27" t="n">
-        <v>6.24</v>
+        <v>7.56707151184602</v>
       </c>
       <c r="I27" t="n">
-        <v>4.70023</v>
+        <v>5.316</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -2806,7 +2806,7 @@
         <v>0.01394</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0164570651318548</v>
+        <v>0.0164583486754685</v>
       </c>
       <c r="H30" t="n">
         <v>0.0768859909108907</v>
@@ -2887,7 +2887,7 @@
         <v>0.01394</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0164570651318548</v>
+        <v>0.0164583486754685</v>
       </c>
       <c r="H31" t="n">
         <v>0.0768859909108907</v>
@@ -2964,7 +2964,7 @@
         <v>0.721</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7065</v>
+        <v>0.706506818181818</v>
       </c>
       <c r="H32" t="n">
         <v>1.922</v>
@@ -2975,7 +2975,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>0.1315</v>
+        <v>0.13175</v>
       </c>
       <c r="M32" t="n">
         <v>1.2565</v>
@@ -3041,7 +3041,7 @@
         <v>0.721</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7065</v>
+        <v>0.706506818181818</v>
       </c>
       <c r="H33" t="n">
         <v>1.922</v>
@@ -3052,7 +3052,7 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>0.1315</v>
+        <v>0.13175</v>
       </c>
       <c r="M33" t="n">
         <v>1.2565</v>
@@ -3276,13 +3276,13 @@
         <v>1.9</v>
       </c>
       <c r="G36" t="n">
-        <v>1.8671944576312</v>
+        <v>1.91441205410973</v>
       </c>
       <c r="H36" t="n">
-        <v>6.24</v>
+        <v>7.56707151184602</v>
       </c>
       <c r="I36" t="n">
-        <v>3.81427</v>
+        <v>3.909</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3859,7 +3859,7 @@
         <v>0.01625</v>
       </c>
       <c r="G43" t="n">
-        <v>0.131864596178435</v>
+        <v>0.131865637544009</v>
       </c>
       <c r="H43" t="n">
         <v>5.80913708183377</v>
@@ -3940,7 +3940,7 @@
         <v>0.01625</v>
       </c>
       <c r="G44" t="n">
-        <v>0.131864596178435</v>
+        <v>0.131865637544009</v>
       </c>
       <c r="H44" t="n">
         <v>5.80913708183377</v>
@@ -4179,7 +4179,7 @@
         <v>0.712</v>
       </c>
       <c r="G47" t="n">
-        <v>0.740763636363636</v>
+        <v>0.740772727272727</v>
       </c>
       <c r="H47" t="n">
         <v>2.64</v>
@@ -4256,7 +4256,7 @@
         <v>0.712</v>
       </c>
       <c r="G48" t="n">
-        <v>0.740763636363636</v>
+        <v>0.740772727272727</v>
       </c>
       <c r="H48" t="n">
         <v>2.64</v>
@@ -4726,13 +4726,13 @@
         <v>1.7</v>
       </c>
       <c r="G54" t="n">
-        <v>1.9018911595429</v>
+        <v>1.94830758187441</v>
       </c>
       <c r="H54" t="n">
-        <v>6.24</v>
+        <v>7.56707151184602</v>
       </c>
       <c r="I54" t="n">
-        <v>3.73213</v>
+        <v>3.7795</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -5629,7 +5629,7 @@
         <v>0.589</v>
       </c>
       <c r="G65" t="n">
-        <v>0.714018181818182</v>
+        <v>0.714021818181818</v>
       </c>
       <c r="H65" t="n">
         <v>2.64</v>
@@ -5706,7 +5706,7 @@
         <v>0.589</v>
       </c>
       <c r="G66" t="n">
-        <v>0.714018181818182</v>
+        <v>0.714021818181818</v>
       </c>
       <c r="H66" t="n">
         <v>2.64</v>
@@ -6176,13 +6176,13 @@
         <v>1.45</v>
       </c>
       <c r="G72" t="n">
-        <v>1.82693055870005</v>
+        <v>1.87431398983013</v>
       </c>
       <c r="H72" t="n">
-        <v>6.24</v>
+        <v>7.56707151184602</v>
       </c>
       <c r="I72" t="n">
-        <v>3.81427</v>
+        <v>3.909</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -7079,7 +7079,7 @@
         <v>0.509</v>
       </c>
       <c r="G83" t="n">
-        <v>0.668818181818182</v>
+        <v>0.668794545454545</v>
       </c>
       <c r="H83" t="n">
         <v>2.64</v>
@@ -7156,7 +7156,7 @@
         <v>0.509</v>
       </c>
       <c r="G84" t="n">
-        <v>0.668818181818182</v>
+        <v>0.668794545454545</v>
       </c>
       <c r="H84" t="n">
         <v>2.64</v>
@@ -8209,7 +8209,7 @@
         <v>0.01086</v>
       </c>
       <c r="G97" t="n">
-        <v>0.123046362334021</v>
+        <v>0.123050725470697</v>
       </c>
       <c r="H97" t="n">
         <v>5.80913708183377</v>
@@ -8220,7 +8220,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.00149</v>
+        <v>0.00151</v>
       </c>
       <c r="M97" t="n">
         <v>0.0387</v>
@@ -8290,7 +8290,7 @@
         <v>0.01086</v>
       </c>
       <c r="G98" t="n">
-        <v>0.123046362334021</v>
+        <v>0.123050725470697</v>
       </c>
       <c r="H98" t="n">
         <v>5.80913708183377</v>
@@ -8301,7 +8301,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.00149</v>
+        <v>0.00151</v>
       </c>
       <c r="M98" t="n">
         <v>0.0387</v>
@@ -8371,7 +8371,7 @@
         <v>0.475</v>
       </c>
       <c r="G99" t="n">
-        <v>0.5500692701951581</v>
+        <v>0.550110239407669</v>
       </c>
       <c r="H99" t="n">
         <v>1.65</v>
@@ -8452,7 +8452,7 @@
         <v>0.475</v>
       </c>
       <c r="G100" t="n">
-        <v>0.5500692701951581</v>
+        <v>0.550110239407669</v>
       </c>
       <c r="H100" t="n">
         <v>1.65</v>
@@ -8529,7 +8529,7 @@
         <v>0.509</v>
       </c>
       <c r="G101" t="n">
-        <v>0.623326826430827</v>
+        <v>0.623366626011861</v>
       </c>
       <c r="H101" t="n">
         <v>2.64</v>
@@ -8543,10 +8543,10 @@
         <v>0.0885</v>
       </c>
       <c r="M101" t="n">
-        <v>1.10291</v>
+        <v>1.10257</v>
       </c>
       <c r="N101" t="n">
-        <v>1.28222</v>
+        <v>1.2826</v>
       </c>
       <c r="O101" t="n">
         <v>1863903</v>
@@ -8606,7 +8606,7 @@
         <v>0.509</v>
       </c>
       <c r="G102" t="n">
-        <v>0.623326826430827</v>
+        <v>0.623366626011861</v>
       </c>
       <c r="H102" t="n">
         <v>2.64</v>
@@ -8620,10 +8620,10 @@
         <v>0.0885</v>
       </c>
       <c r="M102" t="n">
-        <v>1.10291</v>
+        <v>1.10257</v>
       </c>
       <c r="N102" t="n">
-        <v>1.28222</v>
+        <v>1.2826</v>
       </c>
       <c r="O102" t="n">
         <v>1863903</v>
@@ -9810,10 +9810,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.00212</v>
+        <v>0.00218</v>
       </c>
       <c r="G117" t="n">
-        <v>0.115200110005783</v>
+        <v>0.115214255994435</v>
       </c>
       <c r="H117" t="n">
         <v>5.80913708183377</v>
@@ -9824,7 +9824,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>0.00149</v>
+        <v>0.00151</v>
       </c>
       <c r="M117" t="n">
         <v>0.03026</v>
@@ -9891,10 +9891,10 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0.00212</v>
+        <v>0.00218</v>
       </c>
       <c r="G118" t="n">
-        <v>0.115200110005783</v>
+        <v>0.115214255994435</v>
       </c>
       <c r="H118" t="n">
         <v>5.80913708183377</v>
@@ -9905,7 +9905,7 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
-        <v>0.00149</v>
+        <v>0.00151</v>
       </c>
       <c r="M118" t="n">
         <v>0.03026</v>
@@ -9975,7 +9975,7 @@
         <v>0.4619</v>
       </c>
       <c r="G119" t="n">
-        <v>0.542064374429039</v>
+        <v>0.542158329370783</v>
       </c>
       <c r="H119" t="n">
         <v>1.62</v>
@@ -10056,7 +10056,7 @@
         <v>0.4619</v>
       </c>
       <c r="G120" t="n">
-        <v>0.542064374429039</v>
+        <v>0.542158329370783</v>
       </c>
       <c r="H120" t="n">
         <v>1.62</v>
@@ -10207,10 +10207,10 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0.507</v>
+        <v>0.5065</v>
       </c>
       <c r="G122" t="n">
-        <v>0.606431562421468</v>
+        <v>0.60650827781659</v>
       </c>
       <c r="H122" t="n">
         <v>2.64</v>
@@ -10224,10 +10224,10 @@
         <v>0.045</v>
       </c>
       <c r="M122" t="n">
-        <v>1.0997</v>
+        <v>1.09956</v>
       </c>
       <c r="N122" t="n">
-        <v>1.35218</v>
+        <v>1.35227</v>
       </c>
       <c r="O122" t="n">
         <v>1863903</v>
@@ -10284,10 +10284,10 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.507</v>
+        <v>0.5065</v>
       </c>
       <c r="G123" t="n">
-        <v>0.606431562421468</v>
+        <v>0.60650827781659</v>
       </c>
       <c r="H123" t="n">
         <v>2.64</v>
@@ -10301,10 +10301,10 @@
         <v>0.045</v>
       </c>
       <c r="M123" t="n">
-        <v>1.0997</v>
+        <v>1.09956</v>
       </c>
       <c r="N123" t="n">
-        <v>1.35218</v>
+        <v>1.35227</v>
       </c>
       <c r="O123" t="n">
         <v>1863903</v>
@@ -11491,10 +11491,10 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0.00246</v>
+        <v>0.00253</v>
       </c>
       <c r="G138" t="n">
-        <v>0.279314962795181</v>
+        <v>0.279329836138044</v>
       </c>
       <c r="H138" t="n">
         <v>16.1888923438189</v>
@@ -11505,7 +11505,7 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
-        <v>0.00149</v>
+        <v>0.00151</v>
       </c>
       <c r="M138" t="n">
         <v>0.02044</v>
@@ -11572,10 +11572,10 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0.00246</v>
+        <v>0.00253</v>
       </c>
       <c r="G139" t="n">
-        <v>0.279314962795181</v>
+        <v>0.279329836138044</v>
       </c>
       <c r="H139" t="n">
         <v>16.1888923438189</v>
@@ -11586,7 +11586,7 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
-        <v>0.00149</v>
+        <v>0.00151</v>
       </c>
       <c r="M139" t="n">
         <v>0.02044</v>
@@ -11656,7 +11656,7 @@
         <v>0.45945</v>
       </c>
       <c r="G140" t="n">
-        <v>0.570213301521888</v>
+        <v>0.570305690547937</v>
       </c>
       <c r="H140" t="n">
         <v>1.84</v>
@@ -11737,7 +11737,7 @@
         <v>0.45945</v>
       </c>
       <c r="G141" t="n">
-        <v>0.570213301521888</v>
+        <v>0.570305690547937</v>
       </c>
       <c r="H141" t="n">
         <v>1.84</v>
@@ -11888,10 +11888,10 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0.491</v>
+        <v>0.49075</v>
       </c>
       <c r="G143" t="n">
-        <v>1.02764103638111</v>
+        <v>1.02771313985298</v>
       </c>
       <c r="H143" t="n">
         <v>26.38</v>
@@ -11905,7 +11905,7 @@
         <v>0.045</v>
       </c>
       <c r="M143" t="n">
-        <v>1.1487</v>
+        <v>1.14849</v>
       </c>
       <c r="N143" t="n">
         <v>1.3791</v>
@@ -11965,10 +11965,10 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.491</v>
+        <v>0.49075</v>
       </c>
       <c r="G144" t="n">
-        <v>1.02764103638111</v>
+        <v>1.02771313985298</v>
       </c>
       <c r="H144" t="n">
         <v>26.38</v>
@@ -11982,7 +11982,7 @@
         <v>0.045</v>
       </c>
       <c r="M144" t="n">
-        <v>1.1487</v>
+        <v>1.14849</v>
       </c>
       <c r="N144" t="n">
         <v>1.3791</v>
@@ -13172,10 +13172,10 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0.0042</v>
+        <v>0.00427</v>
       </c>
       <c r="G159" t="n">
-        <v>0.278889521697427</v>
+        <v>0.278908164897425</v>
       </c>
       <c r="H159" t="n">
         <v>16.1888923438189</v>
@@ -13186,7 +13186,7 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>0.00283</v>
+        <v>0.0029</v>
       </c>
       <c r="M159" t="n">
         <v>0.02072</v>
@@ -13253,10 +13253,10 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0.0042</v>
+        <v>0.00427</v>
       </c>
       <c r="G160" t="n">
-        <v>0.278889521697427</v>
+        <v>0.278908164897425</v>
       </c>
       <c r="H160" t="n">
         <v>16.1888923438189</v>
@@ -13267,7 +13267,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>0.00283</v>
+        <v>0.0029</v>
       </c>
       <c r="M160" t="n">
         <v>0.02072</v>
@@ -13337,7 +13337,7 @@
         <v>0.56165</v>
       </c>
       <c r="G161" t="n">
-        <v>0.613691634855222</v>
+        <v>0.61378402388127</v>
       </c>
       <c r="H161" t="n">
         <v>1.84</v>
@@ -13418,7 +13418,7 @@
         <v>0.56165</v>
       </c>
       <c r="G162" t="n">
-        <v>0.613691634855222</v>
+        <v>0.61378402388127</v>
       </c>
       <c r="H162" t="n">
         <v>1.84</v>
@@ -13569,10 +13569,10 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0.6</v>
+        <v>0.6002</v>
       </c>
       <c r="G164" t="n">
-        <v>1.07190770304778</v>
+        <v>1.07197980651965</v>
       </c>
       <c r="H164" t="n">
         <v>26.38</v>
@@ -13646,10 +13646,10 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0.6</v>
+        <v>0.6002</v>
       </c>
       <c r="G165" t="n">
-        <v>1.07190770304778</v>
+        <v>1.07197980651965</v>
       </c>
       <c r="H165" t="n">
         <v>26.38</v>
@@ -14196,7 +14196,7 @@
         <v>1.36</v>
       </c>
       <c r="G172" t="n">
-        <v>1.45214728959958</v>
+        <v>1.45200350346013</v>
       </c>
       <c r="H172" t="n">
         <v>3.84</v>
@@ -14856,7 +14856,7 @@
         <v>0.01029</v>
       </c>
       <c r="G180" t="n">
-        <v>0.285289256844552</v>
+        <v>0.285311312479127</v>
       </c>
       <c r="H180" t="n">
         <v>16.1888923438189</v>
@@ -14867,7 +14867,7 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
-        <v>0.00443</v>
+        <v>0.00451</v>
       </c>
       <c r="M180" t="n">
         <v>0.02177</v>
@@ -14937,7 +14937,7 @@
         <v>0.01029</v>
       </c>
       <c r="G181" t="n">
-        <v>0.285289256844552</v>
+        <v>0.285311312479127</v>
       </c>
       <c r="H181" t="n">
         <v>16.1888923438189</v>
@@ -14948,7 +14948,7 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
-        <v>0.00443</v>
+        <v>0.00451</v>
       </c>
       <c r="M181" t="n">
         <v>0.02177</v>
@@ -15018,7 +15018,7 @@
         <v>0.56165</v>
       </c>
       <c r="G182" t="n">
-        <v>0.615653301521888</v>
+        <v>0.615745690547937</v>
       </c>
       <c r="H182" t="n">
         <v>1.84</v>
@@ -15099,7 +15099,7 @@
         <v>0.56165</v>
       </c>
       <c r="G183" t="n">
-        <v>0.615653301521888</v>
+        <v>0.615745690547937</v>
       </c>
       <c r="H183" t="n">
         <v>1.84</v>
@@ -15250,10 +15250,10 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0.6</v>
+        <v>0.6002</v>
       </c>
       <c r="G185" t="n">
-        <v>1.07700770304778</v>
+        <v>1.07710480651965</v>
       </c>
       <c r="H185" t="n">
         <v>26.38</v>
@@ -15267,7 +15267,7 @@
         <v>0.0925</v>
       </c>
       <c r="M185" t="n">
-        <v>1.2477</v>
+        <v>1.24782</v>
       </c>
       <c r="N185" t="n">
         <v>1.468</v>
@@ -15327,10 +15327,10 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0.6</v>
+        <v>0.6002</v>
       </c>
       <c r="G186" t="n">
-        <v>1.07700770304778</v>
+        <v>1.07710480651965</v>
       </c>
       <c r="H186" t="n">
         <v>26.38</v>
@@ -15344,7 +15344,7 @@
         <v>0.0925</v>
       </c>
       <c r="M186" t="n">
-        <v>1.2477</v>
+        <v>1.24782</v>
       </c>
       <c r="N186" t="n">
         <v>1.468</v>
@@ -15877,7 +15877,7 @@
         <v>1.36</v>
       </c>
       <c r="G193" t="n">
-        <v>1.40654323495339</v>
+        <v>1.40638838834168</v>
       </c>
       <c r="H193" t="n">
         <v>3.84</v>
@@ -16537,7 +16537,7 @@
         <v>0.01159</v>
       </c>
       <c r="G201" t="n">
-        <v>0.305993179398139</v>
+        <v>0.306012396612432</v>
       </c>
       <c r="H201" t="n">
         <v>16.1888923438189</v>
@@ -16618,7 +16618,7 @@
         <v>0.01159</v>
       </c>
       <c r="G202" t="n">
-        <v>0.305993179398139</v>
+        <v>0.306012396612432</v>
       </c>
       <c r="H202" t="n">
         <v>16.1888923438189</v>
@@ -16699,7 +16699,7 @@
         <v>0.505</v>
       </c>
       <c r="G203" t="n">
-        <v>0.6145906727150729</v>
+        <v>0.61464504723117</v>
       </c>
       <c r="H203" t="n">
         <v>1.84</v>
@@ -16780,7 +16780,7 @@
         <v>0.505</v>
       </c>
       <c r="G204" t="n">
-        <v>0.6145906727150729</v>
+        <v>0.61464504723117</v>
       </c>
       <c r="H204" t="n">
         <v>1.84</v>
@@ -16934,7 +16934,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="G206" t="n">
-        <v>1.08431920468321</v>
+        <v>1.08435746963564</v>
       </c>
       <c r="H206" t="n">
         <v>26.38</v>
@@ -17011,7 +17011,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="G207" t="n">
-        <v>1.08431920468321</v>
+        <v>1.08435746963564</v>
       </c>
       <c r="H207" t="n">
         <v>26.38</v>
@@ -17558,7 +17558,7 @@
         <v>1.175</v>
       </c>
       <c r="G214" t="n">
-        <v>1.2654601867631</v>
+        <v>1.26527718622198</v>
       </c>
       <c r="H214" t="n">
         <v>3.84</v>
@@ -18218,7 +18218,7 @@
         <v>0.01232</v>
       </c>
       <c r="G222" t="n">
-        <v>0.306802386803989</v>
+        <v>0.306811359677146</v>
       </c>
       <c r="H222" t="n">
         <v>16.1888923438189</v>
@@ -18299,7 +18299,7 @@
         <v>0.01232</v>
       </c>
       <c r="G223" t="n">
-        <v>0.306802386803989</v>
+        <v>0.306811359677146</v>
       </c>
       <c r="H223" t="n">
         <v>16.1888923438189</v>
@@ -18615,7 +18615,7 @@
         <v>0.537</v>
       </c>
       <c r="G227" t="n">
-        <v>1.07006779661017</v>
+        <v>1.07007627118644</v>
       </c>
       <c r="H227" t="n">
         <v>26.38</v>
@@ -18692,7 +18692,7 @@
         <v>0.537</v>
       </c>
       <c r="G228" t="n">
-        <v>1.07006779661017</v>
+        <v>1.07007627118644</v>
       </c>
       <c r="H228" t="n">
         <v>26.38</v>
@@ -19239,7 +19239,7 @@
         <v>0.925</v>
       </c>
       <c r="G235" t="n">
-        <v>1.19526968993622</v>
+        <v>1.19505779457282</v>
       </c>
       <c r="H235" t="n">
         <v>3.84</v>
@@ -19899,7 +19899,7 @@
         <v>0.01219</v>
       </c>
       <c r="G243" t="n">
-        <v>0.0125962361383441</v>
+        <v>0.0126039011345937</v>
       </c>
       <c r="H243" t="n">
         <v>0.0365810515423665</v>
@@ -19980,7 +19980,7 @@
         <v>0.01219</v>
       </c>
       <c r="G244" t="n">
-        <v>0.0125962361383441</v>
+        <v>0.0126039011345937</v>
       </c>
       <c r="H244" t="n">
         <v>0.0365810515423665</v>
@@ -20296,7 +20296,7 @@
         <v>0.537</v>
       </c>
       <c r="G248" t="n">
-        <v>0.6158813559322029</v>
+        <v>0.615889830508475</v>
       </c>
       <c r="H248" t="n">
         <v>1.531</v>
@@ -20373,7 +20373,7 @@
         <v>0.537</v>
       </c>
       <c r="G249" t="n">
-        <v>0.6158813559322029</v>
+        <v>0.615889830508475</v>
       </c>
       <c r="H249" t="n">
         <v>1.531</v>
@@ -20732,6 +20732,1687 @@
         </is>
       </c>
     </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0.50135</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="O254" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P254" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G255" t="n">
+        <v>15.4572534298183</v>
+      </c>
+      <c r="H255" t="n">
+        <v>140</v>
+      </c>
+      <c r="I255" t="n">
+        <v>67</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>9</v>
+      </c>
+      <c r="M255" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="N255" t="n">
+        <v>55</v>
+      </c>
+      <c r="O255" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P255" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T255" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 4)</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G256" t="n">
+        <v>1.05616238105522</v>
+      </c>
+      <c r="H256" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="I256" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M256" t="n">
+        <v>2.1874</v>
+      </c>
+      <c r="N256" t="n">
+        <v>2.85088</v>
+      </c>
+      <c r="O256" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P256" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T256" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.0478135593220339</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0.08655</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>0.0655</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0.07547</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.08512</v>
+      </c>
+      <c r="O257" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P257" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.0478135593220339</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0.08655</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>0.0655</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0.07547</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0.08512</v>
+      </c>
+      <c r="O258" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P258" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>860</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1350.76271186441</v>
+      </c>
+      <c r="H259" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I259" t="n">
+        <v>5269.7</v>
+      </c>
+      <c r="J259" t="n">
+        <v>64.406779661017</v>
+      </c>
+      <c r="K259" t="n">
+        <v>83.0508474576271</v>
+      </c>
+      <c r="L259" t="n">
+        <v>1379</v>
+      </c>
+      <c r="M259" t="n">
+        <v>1864.32</v>
+      </c>
+      <c r="N259" t="n">
+        <v>3368</v>
+      </c>
+      <c r="O259" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P259" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T259" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>860</v>
+      </c>
+      <c r="G260" t="n">
+        <v>1350.76271186441</v>
+      </c>
+      <c r="H260" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I260" t="n">
+        <v>5269.7</v>
+      </c>
+      <c r="J260" t="n">
+        <v>64.406779661017</v>
+      </c>
+      <c r="K260" t="n">
+        <v>83.0508474576271</v>
+      </c>
+      <c r="L260" t="n">
+        <v>1379</v>
+      </c>
+      <c r="M260" t="n">
+        <v>1864.32</v>
+      </c>
+      <c r="N260" t="n">
+        <v>3368</v>
+      </c>
+      <c r="O260" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P260" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>860</v>
+      </c>
+      <c r="G261" t="n">
+        <v>1350.76271186441</v>
+      </c>
+      <c r="H261" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I261" t="n">
+        <v>5269.7</v>
+      </c>
+      <c r="J261" t="n">
+        <v>64.406779661017</v>
+      </c>
+      <c r="K261" t="n">
+        <v>83.0508474576271</v>
+      </c>
+      <c r="L261" t="n">
+        <v>1379</v>
+      </c>
+      <c r="M261" t="n">
+        <v>1864.32</v>
+      </c>
+      <c r="N261" t="n">
+        <v>3368</v>
+      </c>
+      <c r="O261" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P261" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>860</v>
+      </c>
+      <c r="G262" t="n">
+        <v>1350.76271186441</v>
+      </c>
+      <c r="H262" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I262" t="n">
+        <v>5269.7</v>
+      </c>
+      <c r="J262" t="n">
+        <v>64.406779661017</v>
+      </c>
+      <c r="K262" t="n">
+        <v>83.0508474576271</v>
+      </c>
+      <c r="L262" t="n">
+        <v>1379</v>
+      </c>
+      <c r="M262" t="n">
+        <v>1864.32</v>
+      </c>
+      <c r="N262" t="n">
+        <v>3368</v>
+      </c>
+      <c r="O262" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P262" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>109</v>
+      </c>
+      <c r="G263" t="n">
+        <v>108.806</v>
+      </c>
+      <c r="H263" t="n">
+        <v>117.78</v>
+      </c>
+      <c r="I263" t="n">
+        <v>117.78</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>109</v>
+      </c>
+      <c r="M263" t="n">
+        <v>115.757</v>
+      </c>
+      <c r="N263" t="n">
+        <v>117.78</v>
+      </c>
+      <c r="O263" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P263" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.0127740383950605</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.0351673031794904</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0.03032</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>0.00944</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0.02812</v>
+      </c>
+      <c r="O264" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P264" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.0127740383950605</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0.0351673031794904</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0.03032</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>0.00944</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0.02812</v>
+      </c>
+      <c r="O265" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P265" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T265" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.62671186440678</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1.3895</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="M266" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N266" t="n">
+        <v>1.3178</v>
+      </c>
+      <c r="O266" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P266" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T266" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.62671186440678</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I267" t="n">
+        <v>1.3895</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="M267" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N267" t="n">
+        <v>1.3178</v>
+      </c>
+      <c r="O267" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P267" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T267" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G268" t="n">
+        <v>6.4452</v>
+      </c>
+      <c r="H268" t="n">
+        <v>7.347</v>
+      </c>
+      <c r="I268" t="n">
+        <v>7.347</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="M268" t="n">
+        <v>7.15905</v>
+      </c>
+      <c r="N268" t="n">
+        <v>7.347</v>
+      </c>
+      <c r="O268" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P268" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.655720338983051</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="I269" t="n">
+        <v>1.43215</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="M269" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N269" t="n">
+        <v>1.3608</v>
+      </c>
+      <c r="O269" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P269" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T269" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F270" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.655720338983051</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1.43215</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="M270" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N270" t="n">
+        <v>1.3608</v>
+      </c>
+      <c r="O270" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P270" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T270" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.9398305084745761</v>
+      </c>
+      <c r="H271" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="I271" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M271" t="n">
+        <v>1.5341</v>
+      </c>
+      <c r="N271" t="n">
+        <v>1.7124</v>
+      </c>
+      <c r="O271" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P271" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T271" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.9398305084745761</v>
+      </c>
+      <c r="H272" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M272" t="n">
+        <v>1.5341</v>
+      </c>
+      <c r="N272" t="n">
+        <v>1.7124</v>
+      </c>
+      <c r="O272" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P272" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T272" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.122932203389831</v>
+      </c>
+      <c r="H273" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0.17935</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0.11194</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0.1477</v>
+      </c>
+      <c r="O273" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P273" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T273" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Mangatera at Dannevirke</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.122932203389831</v>
+      </c>
+      <c r="H274" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0.17935</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0.11194</v>
+      </c>
+      <c r="N274" t="n">
+        <v>0.1477</v>
+      </c>
+      <c r="O274" t="n">
+        <v>1863903</v>
+      </c>
+      <c r="P274" t="n">
+        <v>5542704</v>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="T274" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangateraatDannevirke_821cd84a43.xlsx
+++ b/state_results/Rivers/MangateraatDannevirke_821cd84a43.xlsx
@@ -2563,13 +2563,13 @@
         <v>1.9</v>
       </c>
       <c r="G27" t="n">
-        <v>1.92139942154775</v>
+        <v>1.86449725514858</v>
       </c>
       <c r="H27" t="n">
-        <v>7.56707151184602</v>
+        <v>6.24</v>
       </c>
       <c r="I27" t="n">
-        <v>5.316</v>
+        <v>4.8101</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -3276,13 +3276,13 @@
         <v>1.9</v>
       </c>
       <c r="G36" t="n">
-        <v>1.91441205410973</v>
+        <v>1.87054996751037</v>
       </c>
       <c r="H36" t="n">
-        <v>7.56707151184602</v>
+        <v>6.24</v>
       </c>
       <c r="I36" t="n">
-        <v>3.909</v>
+        <v>3.83117</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -4726,13 +4726,13 @@
         <v>1.7</v>
       </c>
       <c r="G54" t="n">
-        <v>1.94830758187441</v>
+        <v>1.90534063989953</v>
       </c>
       <c r="H54" t="n">
-        <v>7.56707151184602</v>
+        <v>6.24</v>
       </c>
       <c r="I54" t="n">
-        <v>3.7795</v>
+        <v>3.74058</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -6176,13 +6176,13 @@
         <v>1.45</v>
       </c>
       <c r="G72" t="n">
-        <v>1.87431398983013</v>
+        <v>1.83045190323077</v>
       </c>
       <c r="H72" t="n">
-        <v>7.56707151184602</v>
+        <v>6.24</v>
       </c>
       <c r="I72" t="n">
-        <v>3.909</v>
+        <v>3.83117</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
